--- a/biology/Zoologie/Hypothyris_mansuetus/Hypothyris_mansuetus.xlsx
+++ b/biology/Zoologie/Hypothyris_mansuetus/Hypothyris_mansuetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothyris mansuetus est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Hypothyris.
 </t>
@@ -511,49 +523,54 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hypothyris mansuetus a été décrit par William Chapman Hewitson en 1860 sous le nom initial de Mechanitis mansuetus[1].
-Sous-espèces
-Hypothyris mansuetus mansuetus; présent au Pérou.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris mansuetus a été décrit par William Chapman Hewitson en 1860 sous le nom initial de Mechanitis mansuetus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hypothyris_mansuetus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_mansuetus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hypothyris mansuetus mansuetus; présent au Pérou.
 Hypothyris mansuetus amica (Weymer, 1883); présent en Colombie et en Équateur.
 Hypothyris mansuetus deemae Fox, 1943; présent au Pérou.
 Hypothyris mansuetus klotsi Fox, 1941; présent au Pérou.
 Hypothyris mansuetus meterus (Hewitson, 1860); présent au Pérou.
 Hypothyris mansuetus zephyrus Fox, 1945 présent en Équateur
-Hypothyris mansuetus ssp; présent au Pérou[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hypothyris_mansuetus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypothyris_mansuetus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypothyris mansuetus est un papillon à corps fin, d'une envergure d'environ 65 mm, aux ailes à apex arrondi et aux ailes antérieures à bord interne concave[2]. Les ailes antérieures sont orange tachetées de marron à apex marron séparé par une bande jaune pâle dentelée.  Les ailes postérieures sont orange avec une marque  marron au bord costal.
-Le revers est semblable.
-</t>
+Hypothyris mansuetus ssp; présent au Pérou.</t>
         </is>
       </c>
     </row>
@@ -578,12 +595,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris mansuetus est un papillon à corps fin, d'une envergure d'environ 65 mm, aux ailes à apex arrondi et aux ailes antérieures à bord interne concave. Les ailes antérieures sont orange tachetées de marron à apex marron séparé par une bande jaune pâle dentelée.  Les ailes postérieures sont orange avec une marque  marron au bord costal.
+Le revers est semblable.
+</t>
         </is>
       </c>
     </row>
@@ -611,12 +632,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypothyris mansuetus est présent  en Colombie, en Équateur et au Pérou[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris mansuetus est présent  en Colombie, en Équateur et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypothyris_mansuetus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_mansuetus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Hypothyris mansuetus, sur Wikimedia CommonsHypothyris mansuetus, sur Wikispecies
 </t>
